--- a/Exp2022/Заповедник/Путевые и маршрутные листы/Расчеты для путевых листов.xlsx
+++ b/Exp2022/Заповедник/Путевые и маршрутные листы/Расчеты для путевых листов.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="22368" windowHeight="9264" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Прил. 11 на ИЮНЬ" sheetId="9" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Июль генератор" sheetId="5" r:id="rId6"/>
     <sheet name="Август генератор" sheetId="6" r:id="rId7"/>
     <sheet name="Август лодка" sheetId="7" r:id="rId8"/>
-    <sheet name="Сводный отчет" sheetId="3" r:id="rId9"/>
+    <sheet name="Лист9" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Дни недели'!$A$1:$B$89</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="108">
   <si>
     <t>Приложение № 11</t>
   </si>
@@ -342,37 +342,13 @@
     <t>30.07.2020</t>
   </si>
   <si>
-    <t>Кибринские луды, Воронья губа</t>
-  </si>
-  <si>
     <t>Лувеньга, вершина залива</t>
   </si>
   <si>
     <t>Кандалакша, вершина залива</t>
   </si>
   <si>
-    <t>Июнь</t>
-  </si>
-  <si>
-    <t>Июль</t>
-  </si>
-  <si>
-    <t>Август конец месяца</t>
-  </si>
-  <si>
-    <t>расход</t>
-  </si>
-  <si>
-    <t>остаток</t>
-  </si>
-  <si>
-    <t xml:space="preserve">остаток </t>
-  </si>
-  <si>
-    <t>Передано от НСБ</t>
-  </si>
-  <si>
-    <t>МАсло 4-х тактное</t>
+    <t>Остаток на конец августа</t>
   </si>
 </sst>
 </file>
@@ -380,15 +356,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="dd\.mm\.yyyy\ h:mm"/>
-    <numFmt numFmtId="177" formatCode="_-* #\ ##0.00\ &quot;₽&quot;_-;\-* #\ ##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="179" formatCode="_-* #\ ##0\ &quot;₽&quot;_-;\-* #\ ##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    <numFmt numFmtId="183" formatCode="0.00_ "/>
-    <numFmt numFmtId="184" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="176" formatCode="_-* #\ ##0\ &quot;₽&quot;_-;\-* #\ ##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy\ h:mm"/>
+    <numFmt numFmtId="180" formatCode="_-* #\ ##0.00\ &quot;₽&quot;_-;\-* #\ ##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="182" formatCode="0.000_ "/>
+    <numFmt numFmtId="183" formatCode="0.0000_ "/>
+    <numFmt numFmtId="184" formatCode="0.00_ "/>
     <numFmt numFmtId="185" formatCode="dd\.mmm"/>
   </numFmts>
   <fonts count="29">
@@ -452,7 +428,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,7 +451,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,7 +466,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,17 +481,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,6 +498,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,15 +549,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,13 +566,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,7 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,7 +610,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,19 +640,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,13 +676,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,103 +772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,6 +887,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -927,26 +929,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,15 +948,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -982,16 +958,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1000,130 +979,127 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1131,49 +1107,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1282,7 +1258,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -5541,45 +5517,45 @@
   <sheetPr/>
   <dimension ref="A2:B90"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="10.8888888888889" style="13"/>
-    <col min="2" max="2" width="13.4444444444444" style="13" customWidth="1"/>
+    <col min="1" max="1" width="10.8888888888889" style="14"/>
+    <col min="2" max="2" width="13.4444444444444" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="14">
+      <c r="A2" s="3">
         <v>44713</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="14">
+      <c r="A3" s="3">
         <v>44714</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="14">
+      <c r="A4" s="3">
         <v>44715</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="14">
+      <c r="A5" s="3">
         <v>44716</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5592,50 +5568,50 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="14">
+      <c r="A7" s="3">
         <v>44718</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="14">
+      <c r="A8" s="3">
         <v>44719</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="14">
+      <c r="A9" s="3">
         <v>44720</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="14">
+      <c r="A10" s="3">
         <v>44721</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="14">
+      <c r="A11" s="3">
         <v>44722</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="14">
+      <c r="A12" s="3">
         <v>44723</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5656,42 +5632,42 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="14">
+      <c r="A15" s="3">
         <v>44726</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="14">
+      <c r="A16" s="3">
         <v>44727</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="14">
+      <c r="A17" s="3">
         <v>44728</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="14">
+      <c r="A18" s="3">
         <v>44729</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="14">
+      <c r="A19" s="3">
         <v>44730</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5704,50 +5680,50 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="14">
+      <c r="A21" s="3">
         <v>44732</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="14">
+      <c r="A22" s="3">
         <v>44733</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="14">
+      <c r="A23" s="3">
         <v>44734</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="14">
+      <c r="A24" s="3">
         <v>44735</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="14">
+      <c r="A25" s="3">
         <v>44736</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="14">
+      <c r="A26" s="3">
         <v>44737</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5760,50 +5736,50 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="14">
+      <c r="A28" s="3">
         <v>44739</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="14">
+      <c r="A29" s="3">
         <v>44740</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="14">
+      <c r="A30" s="3">
         <v>44741</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="14">
+      <c r="A31" s="3">
         <v>44742</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="14">
+      <c r="A32" s="3">
         <v>44743</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="14">
+      <c r="A33" s="3">
         <v>44744</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5816,50 +5792,50 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="14">
+      <c r="A35" s="3">
         <v>44746</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="14">
+      <c r="A36" s="3">
         <v>44747</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="14">
+      <c r="A37" s="3">
         <v>44748</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="14">
+      <c r="A38" s="3">
         <v>44749</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="14">
+      <c r="A39" s="3">
         <v>44750</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="14">
+      <c r="A40" s="3">
         <v>44751</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5872,50 +5848,50 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="14">
+      <c r="A42" s="3">
         <v>44753</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="14">
+      <c r="A43" s="3">
         <v>44754</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="14">
+      <c r="A44" s="3">
         <v>44755</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="14">
+      <c r="A45" s="3">
         <v>44756</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="14">
+      <c r="A46" s="3">
         <v>44757</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="14">
+      <c r="A47" s="3">
         <v>44758</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5928,50 +5904,50 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="14">
+      <c r="A49" s="3">
         <v>44760</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="14">
+      <c r="A50" s="3">
         <v>44761</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="14">
+      <c r="A51" s="3">
         <v>44762</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="14">
+      <c r="A52" s="3">
         <v>44763</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="14">
+      <c r="A53" s="3">
         <v>44764</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="14">
+      <c r="A54" s="3">
         <v>44765</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5984,50 +5960,50 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="14">
+      <c r="A56" s="3">
         <v>44767</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="14">
+      <c r="A57" s="3">
         <v>44768</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="14">
+      <c r="A58" s="3">
         <v>44769</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="14">
+      <c r="A59" s="3">
         <v>44770</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="14">
+      <c r="A60" s="3">
         <v>44771</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="14">
+      <c r="A61" s="3">
         <v>44772</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6040,50 +6016,50 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="14">
+      <c r="A63" s="3">
         <v>44774</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="14">
+      <c r="A64" s="3">
         <v>44775</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="14">
+      <c r="A65" s="3">
         <v>44776</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="14">
+      <c r="A66" s="3">
         <v>44777</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="14">
+      <c r="A67" s="3">
         <v>44778</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="14">
+      <c r="A68" s="3">
         <v>44779</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6096,50 +6072,50 @@
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="14">
+      <c r="A70" s="3">
         <v>44781</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="14">
+      <c r="A71" s="3">
         <v>44782</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="14">
+      <c r="A72" s="3">
         <v>44783</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="14">
+      <c r="A73" s="3">
         <v>44784</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="14">
+      <c r="A74" s="3">
         <v>44785</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="14">
+      <c r="A75" s="3">
         <v>44786</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6152,50 +6128,50 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="14">
+      <c r="A77" s="3">
         <v>44788</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="14">
+      <c r="A78" s="3">
         <v>44789</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="14">
+      <c r="A79" s="3">
         <v>44790</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="14">
+      <c r="A80" s="3">
         <v>44791</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="14">
+      <c r="A81" s="3">
         <v>44792</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="14">
+      <c r="A82" s="3">
         <v>44793</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6208,55 +6184,55 @@
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="14">
+      <c r="A84" s="3">
         <v>44795</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="14">
+      <c r="A85" s="3">
         <v>44796</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="14">
+      <c r="A86" s="3">
         <v>44797</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="14">
+      <c r="A87" s="3">
         <v>44798</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="14">
+      <c r="A88" s="3">
         <v>44799</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="14">
+      <c r="A89" s="3">
         <v>44800</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="14"/>
+      <c r="A90" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B89">
@@ -6289,48 +6265,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13">
         <v>44713.375</v>
       </c>
       <c r="C3" t="s">
@@ -6339,19 +6315,19 @@
       <c r="D3" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="13">
         <v>44713.4166666667</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="12">
         <v>1</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="4">
         <v>44716.5</v>
       </c>
@@ -6370,10 +6346,10 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="4">
         <v>44719.5</v>
       </c>
@@ -6389,13 +6365,13 @@
       <c r="F5" s="4">
         <v>44719.7083333333</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="12">
         <v>2</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="4">
         <v>44719.75</v>
       </c>
@@ -6411,13 +6387,13 @@
       <c r="F6" s="4">
         <v>44719.8333333333</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="12">
         <v>2</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="4">
         <v>44720.5</v>
       </c>
@@ -6433,13 +6409,13 @@
       <c r="F7" s="4">
         <v>44720.7083333333</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="12">
         <v>2</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="4">
         <v>44720.75</v>
       </c>
@@ -6455,13 +6431,13 @@
       <c r="F8" s="4">
         <v>44720.8333333333</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="12">
         <v>2</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="4">
         <v>44721.75</v>
       </c>
@@ -6477,10 +6453,10 @@
       <c r="F9" s="4">
         <v>44721.8333333333</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="12">
         <v>2</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="4">
@@ -6661,7 +6637,7 @@
         <f>C22*(D22+E22)</f>
         <v>250.8</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="5">
         <f>SUM(G3:G17)</f>
         <v>20</v>
       </c>
@@ -6676,7 +6652,7 @@
       <c r="A24" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="7">
         <f>A25/100*B22</f>
         <v>5.016</v>
       </c>
@@ -6756,7 +6732,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B3" t="s">
@@ -6765,7 +6741,7 @@
       <c r="D3" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>86</v>
       </c>
       <c r="F3">
@@ -6773,7 +6749,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>88</v>
       </c>
       <c r="B4" t="s">
@@ -6782,7 +6758,7 @@
       <c r="D4" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>88</v>
       </c>
       <c r="F4">
@@ -6790,7 +6766,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B5" t="s">
@@ -6799,7 +6775,7 @@
       <c r="D5" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>89</v>
       </c>
       <c r="F5">
@@ -6807,7 +6783,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B6" t="s">
@@ -6816,7 +6792,7 @@
       <c r="D6" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>90</v>
       </c>
       <c r="F6">
@@ -6824,7 +6800,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>91</v>
       </c>
       <c r="B7" t="s">
@@ -6833,7 +6809,7 @@
       <c r="D7" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>91</v>
       </c>
       <c r="F7">
@@ -6841,7 +6817,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B8" t="s">
@@ -6850,7 +6826,7 @@
       <c r="D8" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>92</v>
       </c>
       <c r="F8">
@@ -6858,7 +6834,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B9" t="s">
@@ -6867,7 +6843,7 @@
       <c r="D9" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>93</v>
       </c>
       <c r="F9">
@@ -6875,7 +6851,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6">
+      <c r="A10" s="8">
         <v>44027</v>
       </c>
       <c r="B10" t="s">
@@ -6884,7 +6860,7 @@
       <c r="D10" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="8">
         <v>44027</v>
       </c>
       <c r="F10">
@@ -6892,7 +6868,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6">
+      <c r="A11" s="8">
         <v>44028</v>
       </c>
       <c r="B11" t="s">
@@ -6901,7 +6877,7 @@
       <c r="D11" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="8">
         <v>44028</v>
       </c>
       <c r="F11">
@@ -6909,7 +6885,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6">
+      <c r="A12" s="8">
         <v>44029</v>
       </c>
       <c r="B12" t="s">
@@ -6918,7 +6894,7 @@
       <c r="D12" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="8">
         <v>44029</v>
       </c>
       <c r="F12">
@@ -6926,7 +6902,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>94</v>
       </c>
       <c r="B13" t="s">
@@ -6935,7 +6911,7 @@
       <c r="D13" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F13">
@@ -6943,7 +6919,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B14" t="s">
@@ -6952,7 +6928,7 @@
       <c r="D14" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="8" t="s">
         <v>95</v>
       </c>
       <c r="F14">
@@ -6960,16 +6936,16 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="A17" s="11"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
@@ -6990,7 +6966,7 @@
         <f>C19*(D19+E19)</f>
         <v>61.92</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <f>SUM(F3:F16)</f>
         <v>36</v>
       </c>
@@ -7053,42 +7029,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -7214,16 +7190,10 @@
     </row>
     <row r="9" customFormat="1" spans="2:6">
       <c r="B9" s="4"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="2:6">
       <c r="B10" s="4"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
       <c r="F10" s="4"/>
     </row>
     <row r="16" customFormat="1" spans="2:5">
@@ -7260,7 +7230,7 @@
       <c r="A19" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="10">
         <f>A20/100*B17</f>
         <v>2.2572</v>
       </c>
@@ -7288,8 +7258,8 @@
   <sheetPr/>
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -7322,7 +7292,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B3" t="s">
@@ -7331,7 +7301,7 @@
       <c r="D3" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>86</v>
       </c>
       <c r="F3">
@@ -7339,7 +7309,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>88</v>
       </c>
       <c r="B4" t="s">
@@ -7348,7 +7318,7 @@
       <c r="D4" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>88</v>
       </c>
       <c r="F4">
@@ -7356,7 +7326,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B5" t="s">
@@ -7365,7 +7335,7 @@
       <c r="D5" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>89</v>
       </c>
       <c r="F5">
@@ -7373,7 +7343,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B6" t="s">
@@ -7382,7 +7352,7 @@
       <c r="D6" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>90</v>
       </c>
       <c r="F6">
@@ -7390,7 +7360,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B7" t="s">
@@ -7399,7 +7369,7 @@
       <c r="D7" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>92</v>
       </c>
       <c r="F7">
@@ -7407,7 +7377,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B8" t="s">
@@ -7416,7 +7386,7 @@
       <c r="D8" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>101</v>
       </c>
       <c r="F8">
@@ -7424,7 +7394,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B9" t="s">
@@ -7433,7 +7403,7 @@
       <c r="D9" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>93</v>
       </c>
       <c r="F9">
@@ -7441,7 +7411,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6">
+      <c r="A10" s="8">
         <v>44027</v>
       </c>
       <c r="B10" t="s">
@@ -7450,7 +7420,7 @@
       <c r="D10" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F10">
@@ -7458,7 +7428,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6">
+      <c r="A11" s="8">
         <v>44028</v>
       </c>
       <c r="B11" t="s">
@@ -7467,7 +7437,7 @@
       <c r="D11" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F11">
@@ -7475,7 +7445,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6">
+      <c r="A12" s="8">
         <v>44030</v>
       </c>
       <c r="B12" t="s">
@@ -7484,7 +7454,7 @@
       <c r="D12" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>103</v>
       </c>
       <c r="F12">
@@ -7492,7 +7462,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6">
+      <c r="A13" s="8">
         <v>44031</v>
       </c>
       <c r="B13" t="s">
@@ -7501,7 +7471,7 @@
       <c r="D13" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="8" t="s">
         <v>104</v>
       </c>
       <c r="F13">
@@ -7509,8 +7479,8 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
@@ -7531,7 +7501,7 @@
         <f>C19*(D19+E19)</f>
         <v>80.84</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <f>SUM(F3:F14)</f>
         <v>47</v>
       </c>
@@ -7546,7 +7516,7 @@
       <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="9">
         <f>A22/100*B19+A23</f>
         <v>0.004042</v>
       </c>
@@ -7577,13 +7547,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F23"/>
+  <dimension ref="A2:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="34.2685185185185" customWidth="1"/>
     <col min="2" max="2" width="23.1851851851852" customWidth="1"/>
@@ -7613,8 +7583,8 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6">
-        <v>44424</v>
+      <c r="A3" s="3">
+        <v>44777</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -7622,16 +7592,14 @@
       <c r="D3" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="6">
-        <v>44409</v>
-      </c>
+      <c r="E3" s="8"/>
       <c r="F3">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6">
-        <v>44425</v>
+      <c r="A4" s="3">
+        <v>44778</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -7639,16 +7607,14 @@
       <c r="D4" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="6">
-        <v>44411</v>
-      </c>
+      <c r="E4" s="8"/>
       <c r="F4">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6">
-        <v>44426</v>
+      <c r="A5" s="3">
+        <v>44779</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
@@ -7656,16 +7622,14 @@
       <c r="D5" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="6">
-        <v>44412</v>
-      </c>
+      <c r="E5" s="8"/>
       <c r="F5">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6">
-        <v>44427</v>
+      <c r="A6" s="3">
+        <v>44781</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -7673,16 +7637,14 @@
       <c r="D6" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="6">
-        <v>44413</v>
-      </c>
+      <c r="E6" s="8"/>
       <c r="F6">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6">
-        <v>44428</v>
+      <c r="A7" s="3">
+        <v>44782</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
@@ -7690,73 +7652,232 @@
       <c r="D7" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="6">
-        <v>44414</v>
-      </c>
+      <c r="E7" s="8"/>
       <c r="F7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="13" spans="2:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
+        <v>44783</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
+        <v>44784</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
+        <v>44785</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3">
+        <v>44786</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3">
+        <v>44788</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3">
+        <v>44789</v>
+      </c>
       <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3">
+        <v>44790</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3">
+        <v>44791</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3">
+        <v>44792</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3">
+        <v>44793</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3">
+        <v>44795</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
         <v>74</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C22" t="s">
         <v>75</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D22" t="s">
         <v>76</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
-      <c r="B14">
-        <f>C14*(D14+E14)</f>
-        <v>77.4</v>
-      </c>
-      <c r="C14">
-        <f>SUM(F3:F9)</f>
-        <v>45</v>
-      </c>
-      <c r="D14">
+    <row r="23" spans="2:9">
+      <c r="B23">
+        <f>C23*(D23+E23)</f>
+        <v>137.6</v>
+      </c>
+      <c r="C23">
+        <f>SUM(F3:F18)</f>
+        <v>80</v>
+      </c>
+      <c r="D23">
         <v>1.56</v>
       </c>
-      <c r="E14">
+      <c r="E23">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="I23">
+        <f>507.28-B23</f>
+        <v>369.68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B16">
-        <f>A17/100*B14+A18</f>
-        <v>0.00387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
+      <c r="B25" s="7">
+        <f>A26/100*B23+A27</f>
+        <v>0.00688</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>0.005</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B26" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="5"/>
+    <row r="31" spans="2:2">
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7767,17 +7888,17 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="18.0462962962963" customWidth="1"/>
     <col min="3" max="3" width="19.6388888888889" customWidth="1"/>
-    <col min="4" max="4" width="18.4537037037037" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="14.2685185185185" customWidth="1"/>
     <col min="6" max="6" width="17.2685185185185" customWidth="1"/>
     <col min="7" max="7" width="16.3611111111111" customWidth="1"/>
@@ -7785,48 +7906,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="2:7">
-      <c r="B3" s="4">
-        <v>44424.5833333333</v>
+      <c r="B3" s="3">
+        <v>44777</v>
       </c>
       <c r="C3" t="s">
         <v>68</v>
@@ -7845,28 +7966,28 @@
       </c>
     </row>
     <row r="4" customFormat="1" spans="2:7">
-      <c r="B4" s="4">
-        <v>44424.6666666667</v>
+      <c r="B4" s="3">
+        <v>44779</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
       </c>
       <c r="F4" s="4">
-        <v>44424.7083333333</v>
+        <v>44425.6666666667</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="2:7">
-      <c r="B5" s="4">
-        <v>44425.4166666667</v>
+      <c r="B5" s="3">
+        <v>44781</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -7878,165 +7999,126 @@
         <v>69</v>
       </c>
       <c r="F5" s="4">
-        <v>44425.6666666667</v>
+        <v>44425.8333333333</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="2:7">
-      <c r="B6" s="4">
-        <v>44425.75</v>
+      <c r="B6" s="3">
+        <v>44785</v>
       </c>
       <c r="C6" t="s">
         <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
         <v>69</v>
       </c>
       <c r="F6" s="4">
-        <v>44425.8333333333</v>
+        <v>44425.5</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="2:7">
-      <c r="B7" s="4">
-        <v>44426.5416666667</v>
+    <row r="7" spans="2:7">
+      <c r="B7" s="3">
+        <v>44789</v>
       </c>
       <c r="C7" t="s">
         <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="4">
-        <v>44423.6666666667</v>
+        <v>44428.75</v>
       </c>
       <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="2:7">
-      <c r="B8" s="4">
-        <v>44427.4166666667</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="3">
+        <v>44796</v>
       </c>
       <c r="C8" t="s">
         <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F8" s="4">
-        <v>44425.5</v>
+        <v>44429.3333333333</v>
       </c>
       <c r="G8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="2:7">
-      <c r="B9" s="4">
-        <v>44428.5416666667</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="4">
-        <v>44428.75</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="2:7">
-      <c r="B10" s="4">
-        <v>44429.2916666667</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="4">
-        <v>44429.3333333333</v>
-      </c>
-      <c r="G10">
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="2:5">
-      <c r="B16" t="s">
+    <row r="15" customFormat="1" spans="2:5">
+      <c r="B15" t="s">
         <v>74</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C15" t="s">
         <v>75</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D15" t="s">
         <v>76</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="2:10">
-      <c r="B17">
-        <f>C17*(D17+E17)</f>
-        <v>188.1</v>
-      </c>
-      <c r="C17">
-        <f>SUM(G3:G14)</f>
-        <v>15</v>
-      </c>
-      <c r="D17">
+    <row r="16" customFormat="1" spans="2:10">
+      <c r="B16">
+        <f>C16*(D16+E16)</f>
+        <v>125.4</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUM(G3:G8)</f>
+        <v>10</v>
+      </c>
+      <c r="D16">
         <v>11.4</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E16" s="6">
         <f>1+0.14</f>
         <v>1.14</v>
       </c>
+      <c r="J16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10">
       <c r="J17">
-        <f>579.2-B17</f>
-        <v>391.1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:10">
-      <c r="A19" t="s">
+        <f>207.28+300-263</f>
+        <v>244.28</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:2">
+      <c r="A18" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="1">
-        <f>A20/100*B17</f>
-        <v>3.762</v>
-      </c>
-      <c r="J19">
-        <f>9.381-B19</f>
-        <v>5.619</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:2">
-      <c r="A20">
+      <c r="B18" s="7">
+        <f>A19/100*B16</f>
+        <v>2.508</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:2">
+      <c r="A19">
         <v>2</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B19" t="s">
         <v>79</v>
       </c>
     </row>
@@ -8053,242 +8135,24 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="4"/>
-  <cols>
-    <col min="1" max="1" width="19.1851851851852" customWidth="1"/>
-    <col min="8" max="9" width="9.5462962962963"/>
-    <col min="11" max="11" width="9.5462962962963"/>
-    <col min="15" max="15" width="20.4537037037037" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" spans="2:17">
-      <c r="B1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="2:17">
-      <c r="B2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3">
-        <v>188.12</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="D3">
-        <f>'Июнь генератор'!B19+'Июнь лодка'!B22</f>
-        <v>312.72</v>
-      </c>
-      <c r="F3">
-        <f>B3+C3-D3</f>
-        <v>75.4</v>
-      </c>
-      <c r="G3">
-        <v>951.76</v>
-      </c>
-      <c r="H3">
-        <f>'Июль лодка'!B17+'Июль генератор'!B19</f>
-        <v>193.7</v>
-      </c>
-      <c r="I3">
-        <f>F3+G3-H3</f>
-        <v>833.46</v>
-      </c>
-      <c r="K3">
-        <f>I3</f>
-        <v>833.46</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <f>'Август лодка'!B17+'Август генератор'!B14</f>
-        <v>265.5</v>
-      </c>
-      <c r="O3">
-        <f>K3-M3</f>
-        <v>567.96</v>
-      </c>
-      <c r="Q3">
-        <f>401.76+150</f>
-        <v>551.76</v>
-      </c>
-      <c r="R3">
-        <f>G3+Q3</f>
-        <v>1503.52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4">
-        <v>7.53</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <f>'Июнь лодка'!B24</f>
-        <v>5.016</v>
-      </c>
-      <c r="F4">
-        <v>4.131</v>
-      </c>
-      <c r="G4">
-        <v>12.39</v>
-      </c>
-      <c r="H4">
-        <f>'Июль лодка'!B19</f>
-        <v>2.2572</v>
-      </c>
-      <c r="I4">
-        <f>F4+G4-H4</f>
-        <v>14.2638</v>
-      </c>
-      <c r="K4">
-        <f>I4</f>
-        <v>14.2638</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <f>'Август лодка'!B19</f>
-        <v>3.762</v>
-      </c>
-      <c r="O4">
-        <f>K4-M4</f>
-        <v>10.5018</v>
-      </c>
-      <c r="Q4">
-        <v>12.39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5">
-        <v>3.41</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <f>'Июнь генератор'!B21</f>
-        <v>0.003096</v>
-      </c>
-      <c r="F5">
-        <f>B5+C5-D5</f>
-        <v>3.406904</v>
-      </c>
-      <c r="G5">
-        <v>4.24</v>
-      </c>
-      <c r="H5">
-        <f>'Июль генератор'!B21</f>
-        <v>0.004042</v>
-      </c>
-      <c r="I5">
-        <f>F5+G5-H5</f>
-        <v>7.642862</v>
-      </c>
-      <c r="K5">
-        <f>I5</f>
-        <v>7.642862</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <f>'Август генератор'!B16</f>
-        <v>0.00387</v>
-      </c>
-      <c r="O5">
-        <f>K5-M5</f>
-        <v>7.638992</v>
-      </c>
-      <c r="Q5">
-        <v>4.2</v>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <f>6.343+2-2.508</f>
+        <v>5.835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <f>6.979-0.007</f>
+        <v>6.972</v>
       </c>
     </row>
   </sheetData>

--- a/Exp2022/Заповедник/Путевые и маршрутные листы/Расчеты для путевых листов.xlsx
+++ b/Exp2022/Заповедник/Путевые и маршрутные листы/Расчеты для путевых листов.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="109">
   <si>
     <t>Приложение № 11</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>30.07.2020</t>
+  </si>
+  <si>
+    <t>0.05</t>
   </si>
   <si>
     <t>Лувеньга, вершина залива</t>
@@ -356,15 +359,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="_-* #\ ##0\ &quot;₽&quot;_-;\-* #\ ##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="177" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy\ h:mm"/>
-    <numFmt numFmtId="180" formatCode="_-* #\ ##0.00\ &quot;₽&quot;_-;\-* #\ ##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="182" formatCode="0.000_ "/>
-    <numFmt numFmtId="183" formatCode="0.0000_ "/>
-    <numFmt numFmtId="184" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="_-* #\ ##0\ &quot;₽&quot;_-;\-* #\ ##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy\ h:mm"/>
+    <numFmt numFmtId="182" formatCode="_-* #\ ##0.00\ &quot;₽&quot;_-;\-* #\ ##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="0.000_ "/>
+    <numFmt numFmtId="184" formatCode="0.0000_ "/>
     <numFmt numFmtId="185" formatCode="dd\.mmm"/>
   </numFmts>
   <fonts count="29">
@@ -428,6 +431,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -442,38 +468,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,22 +485,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,7 +499,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -541,24 +538,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,6 +562,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,7 +595,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,121 +619,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,7 +643,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,7 +739,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,19 +763,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,6 +859,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -871,16 +885,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -903,32 +917,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -945,6 +933,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -958,148 +961,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,10 +1116,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1125,13 +1128,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1143,13 +1146,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1258,7 +1261,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -7230,7 +7233,7 @@
       <c r="A19" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <f>A20/100*B17</f>
         <v>2.2572</v>
       </c>
@@ -7516,7 +7519,7 @@
       <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="10">
         <f>A22/100*B19+A23</f>
         <v>0.004042</v>
       </c>
@@ -7549,7 +7552,7 @@
   <sheetPr/>
   <dimension ref="A2:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -7860,14 +7863,14 @@
       <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="7">
-        <f>A26/100*B23+A27</f>
-        <v>0.00688</v>
+      <c r="B25" s="9">
+        <f>(A26/100)*B23+A27</f>
+        <v>0.0688</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26">
-        <v>0.005</v>
+      <c r="A26" t="s">
+        <v>105</v>
       </c>
       <c r="B26" t="s">
         <v>79</v>
@@ -8013,7 +8016,7 @@
         <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
         <v>69</v>
@@ -8033,7 +8036,7 @@
         <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
         <v>69</v>
@@ -8096,7 +8099,7 @@
         <v>1.14</v>
       </c>
       <c r="J16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="10:10">
